--- a/data/trans_dic/P57B3_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P57B3_R-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2470035771895881</v>
+        <v>0.249632440854732</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2305480223495083</v>
+        <v>0.2333060417764199</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2477691009613664</v>
+        <v>0.2473579872373173</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3303007512777209</v>
+        <v>0.3310314779242288</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2905322928914953</v>
+        <v>0.2946578467131231</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.301041311626373</v>
+        <v>0.2990400128597171</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1165729056826989</v>
+        <v>0.1158558433912833</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.150432330921192</v>
+        <v>0.1501625524185542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1403201047739031</v>
+        <v>0.1404174015328822</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1612185375358295</v>
+        <v>0.1608022401279232</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1867987995764136</v>
+        <v>0.1863561863183201</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1685944727614808</v>
+        <v>0.168572028071096</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.09067202435591386</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.08370855515966158</v>
+        <v>0.08370855515966159</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06241855857738354</v>
+        <v>0.06242621602263641</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07583102791216613</v>
+        <v>0.07683109154336631</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07302760669671582</v>
+        <v>0.07398855320078482</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09305848161480199</v>
+        <v>0.09343343450364154</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1055844556771316</v>
+        <v>0.1065916625661033</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09486352279043642</v>
+        <v>0.09508254759259104</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04319137678068927</v>
+        <v>0.04334729358062063</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05134614733990633</v>
+        <v>0.05061867534682515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05178127212279894</v>
+        <v>0.05156925122059994</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07532534450062181</v>
+        <v>0.07584005554058093</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08212136702627236</v>
+        <v>0.07948453924862298</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07520708139990702</v>
+        <v>0.07421139333256353</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1185505509110611</v>
+        <v>0.118550550911061</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1362999068478902</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1074966329251235</v>
+        <v>0.107696216571691</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1275882470693919</v>
+        <v>0.1263557955103015</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1203818687974023</v>
+        <v>0.1206988052672127</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1302153826963301</v>
+        <v>0.1292675209313982</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1462010159046715</v>
+        <v>0.1456960279721198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1355440089959044</v>
+        <v>0.1353448246657014</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>122961</v>
+        <v>124270</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>143765</v>
+        <v>145485</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>277846</v>
+        <v>277385</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>164428</v>
+        <v>164791</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>181170</v>
+        <v>183743</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>337585</v>
+        <v>335341</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>111926</v>
+        <v>111237</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>167580</v>
+        <v>167280</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>291042</v>
+        <v>291244</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>154792</v>
+        <v>154392</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>208092</v>
+        <v>207599</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>349687</v>
+        <v>349640</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>65320</v>
+        <v>65328</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>79238</v>
+        <v>80283</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>152730</v>
+        <v>154740</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>97384</v>
+        <v>97776</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>110328</v>
+        <v>111381</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>198398</v>
+        <v>198856</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>42152</v>
+        <v>42304</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46597</v>
+        <v>45937</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>97527</v>
+        <v>97127</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>73512</v>
+        <v>74015</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>74526</v>
+        <v>72133</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>141648</v>
+        <v>139772</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>374127</v>
+        <v>374821</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>470801</v>
+        <v>466253</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>863181</v>
+        <v>865454</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>453196</v>
+        <v>449897</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>539482</v>
+        <v>537619</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>971899</v>
+        <v>970471</v>
       </c>
     </row>
     <row r="24">
